--- a/data/hotels_by_city/Dallas/Dallas_shard_747.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_747.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="408">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1098 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r565464794-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>56538</t>
+  </si>
+  <si>
+    <t>109038</t>
+  </si>
+  <si>
+    <t>565464794</t>
+  </si>
+  <si>
+    <t>03/09/2018</t>
+  </si>
+  <si>
+    <t>Excellent lower priced Hotel</t>
+  </si>
+  <si>
+    <t>Needed a hotel in the area and it was late.  They had rooms available at a good price.  Room were in great shape, clean and well taken care of.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r563179580-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>563179580</t>
+  </si>
+  <si>
+    <t>02/27/2018</t>
+  </si>
+  <si>
+    <t>Not very clean</t>
+  </si>
+  <si>
+    <t>Room was not very clean, abused furniture and accessories. No place to hang clothes, rack ripped from wall. Bathroom not in great shape, damage thru out. Carpet stains and not clean. Bed cover old and stained, did not use because of the looks. A/C not clean and smelled, had to clean with Lysol. Sprayed Lysol to kill maybe anything crawling in this room and bed. Good thing I travel with my personnel bed roll.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r559300633-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>559300633</t>
+  </si>
+  <si>
+    <t>02/08/2018</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Went there on last minute booking So easy to get a room The room I got was the first one to the street so it wasn’t very sleeping inviroment really </t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r528046858-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>528046858</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r526136472-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>526136472</t>
+  </si>
+  <si>
+    <t>09/20/2017</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>The room was excellent! Very clean, very nice! Bed was wonderful! Stayed two nights and the room was clean the next day with fresh towels! Excellent service!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r517175121-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>517175121</t>
+  </si>
+  <si>
+    <t>08/24/2017</t>
+  </si>
+  <si>
+    <t>Clean and organized.  No problem with front desk staff...</t>
+  </si>
+  <si>
+    <t>Clean and organized.  No problem with front desk staff. Neighbors very noisy and annoying.  Staff sent them back to their rooms with haste and hospitality.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r500510631-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>500510631</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Awful</t>
+  </si>
+  <si>
+    <t>Reserved and confirmed a double queen. When I got there they had given my room away and stuck is in a single King with a nasty yellow pull out couch that I had to beg for an hour for bedding for. Then I was given a sheet and a towel for my kids to cover up with. The manager was extremely rude and never called me back when he says he would the next day. I had to track him down to get moved for our second night. I was told that because I was a hotel employee from another hotel he could put me anywhere he chose. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Super8Richardson, Manager at Super 8 Richardson Dallas, responded to this reviewResponded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Reserved and confirmed a double queen. When I got there they had given my room away and stuck is in a single King with a nasty yellow pull out couch that I had to beg for an hour for bedding for. Then I was given a sheet and a towel for my kids to cover up with. The manager was extremely rude and never called me back when he says he would the next day. I had to track him down to get moved for our second night. I was told that because I was a hotel employee from another hotel he could put me anywhere he chose. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r491557095-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>491557095</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>NOT clean &amp; smells BAD!</t>
+  </si>
+  <si>
+    <t>The lady at the front desk was really nice. But the room had a horrible, almost urine smell and the towels were dirty and the tub was so filthy that I couldn't take a shower and the floor was so dirty that I could not go barefoot in the room!! I will NEVER stay here again. The neighborhood seemed questionable on top of the filthy, smelly room. Can't believe I had to pay over $80 for this for one night!NEVER AGAIN!!!! YUCK.MoreShow less</t>
+  </si>
+  <si>
+    <t>The lady at the front desk was really nice. But the room had a horrible, almost urine smell and the towels were dirty and the tub was so filthy that I couldn't take a shower and the floor was so dirty that I could not go barefoot in the room!! I will NEVER stay here again. The neighborhood seemed questionable on top of the filthy, smelly room. Can't believe I had to pay over $80 for this for one night!NEVER AGAIN!!!! YUCK.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r487791713-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>487791713</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r481228853-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>481228853</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r480385702-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>480385702</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>My stay at the Super 8 Richardson Tx. was awful. 1. Room we reserved was not available, room we had to stay in had 2 queens , not King Beds, it was smoking instead of non-smoking. Bed linens had cigarette burns in them, sheets were dirty, not enough towels. I bought air freshener so we could barely tolerate the stink, Door was hard to open. Poor quality, awful accomodations.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r475871866-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>475871866</t>
+  </si>
+  <si>
+    <t>04/15/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r471845201-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>471845201</t>
+  </si>
+  <si>
+    <t>04/01/2017</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r469639855-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>469639855</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vacation  for touring culinary school </t>
+  </si>
+  <si>
+    <t>We came to Texas from Arkansas to tour the culinary  school and picked Richardson Super 8 because of its vecinity to the school.  We didn't have any problem staying comfortable because the AC worked wonderful.   The room was clean.   The breakfast was a little on the light side.   We are used to having eggs and sausage  not just carbs for breakfast.   There was no protein available. Other than that it was a super place to stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>Super8Richardson, Manager at Super 8 Richardson Dallas, responded to this reviewResponded November 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2017</t>
+  </si>
+  <si>
+    <t>We came to Texas from Arkansas to tour the culinary  school and picked Richardson Super 8 because of its vecinity to the school.  We didn't have any problem staying comfortable because the AC worked wonderful.   The room was clean.   The breakfast was a little on the light side.   We are used to having eggs and sausage  not just carbs for breakfast.   There was no protein available. Other than that it was a super place to stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r465866347-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>465866347</t>
+  </si>
+  <si>
+    <t>03/09/2017</t>
+  </si>
+  <si>
+    <t>Room was filty towels were stained bed was disgusting roaches were present toilet backed up WiFi didnt work i could go o</t>
+  </si>
+  <si>
+    <t>Room was filty towels were stained bed was disgusting roaches were present toilet backed up WiFi didnt work i could go on</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r452899100-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>452899100</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Can't get Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When I checked into this hotel I thought it would be uneventful. Boy, was I wrong. I'll keep this short, I was moved from room to room because of varies problems. No heat, TV, not working properly, last but not least stopped up toilet. I will never stay here ever again, because it seemed like the problems that I was having was funny to the staff. </t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r452021835-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>452021835</t>
+  </si>
+  <si>
+    <t>01/14/2017</t>
+  </si>
+  <si>
+    <t>Nice get away</t>
+  </si>
+  <si>
+    <t>So I really did need a get away from everything and everybody and I finally had the chance to and boy did I enjoy myself.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r451580562-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>451580562</t>
+  </si>
+  <si>
+    <t>01/12/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r439614484-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>439614484</t>
+  </si>
+  <si>
+    <t>11/23/2016</t>
+  </si>
+  <si>
+    <t>Cheap</t>
+  </si>
+  <si>
+    <t>Fair if you want to watch ur budget. Stayed more than once since they usually have vacancy. Front desk some not so friendly.  Had to keep going to office since my key card kept not working. Not very well lit.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r437165481-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>437165481</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>Staying because mom was in the hospital</t>
+  </si>
+  <si>
+    <t>The room was awful! There were cigarette burns everywhere! The towels had mold! The bathroom had mold...I could go on! They would NOT give my money back!!</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r436215056-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>436215056</t>
+  </si>
+  <si>
+    <t>11/10/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r431629230-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>431629230</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>Good stay, bad trip</t>
+  </si>
+  <si>
+    <t>The hotel was great, and exactly as pictured(which is very rare). I enjoyed the breakfast though I hoped for some more variety for the price. Shower, bathroom, and bed were all fine-and the fridge and A/C worked perfectly. The hotel was wonderful bit the traffic on this particular trip was frustrating(but not factored intothis review).The breakfast juices were too watery in my opinion but nor too big a deal.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r426998044-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>426998044</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>The place did not look like the pictures</t>
+  </si>
+  <si>
+    <t>I chose this place because the price seemed decent and it wasn't too far from the cotton bowl. When we drove up it was disgusting. We specifically reserved a king size bed and they front desk literally looked at me like I was crazy. I purposely wrote down any information from the phone call two weeks prior and she said the name I had was of someone who never worked there. The place smelled horrible. Stains all on the sheets and shower curtain. The remote for the television didn't work and there was a coffee machine but no coffee pot to use it. I should have spent another $40 per night and stayed in another hotel I knew wouldn't let me down. Lesson learned MoreShow less</t>
+  </si>
+  <si>
+    <t>I chose this place because the price seemed decent and it wasn't too far from the cotton bowl. When we drove up it was disgusting. We specifically reserved a king size bed and they front desk literally looked at me like I was crazy. I purposely wrote down any information from the phone call two weeks prior and she said the name I had was of someone who never worked there. The place smelled horrible. Stains all on the sheets and shower curtain. The remote for the television didn't work and there was a coffee machine but no coffee pot to use it. I should have spent another $40 per night and stayed in another hotel I knew wouldn't let me down. Lesson learned More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r423176919-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>423176919</t>
+  </si>
+  <si>
+    <t>09/28/2016</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r418489275-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>418489275</t>
+  </si>
+  <si>
+    <t>09/14/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r415528154-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>415528154</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>My stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wasn't too thrilled overall.  The room smelled very bad-like it had just been painted.  The commode didn't flush well.  I called the front desk and was told I could come down and get a plunger.  There was something smeared on the bathroom door that looked like feces.  Best note, the was comfortable.  Also, I asked for an extra pillow-again, I was told I could come to the front desk and get one.  We spent $ 239.00 for two nights.   I had a headache and had to play plumber!! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r415389918-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>415389918</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r395251483-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>395251483</t>
+  </si>
+  <si>
+    <t>07/21/2016</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r389436176-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>389436176</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r388292695-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>388292695</t>
+  </si>
+  <si>
+    <t>07/01/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r383807279-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>383807279</t>
+  </si>
+  <si>
+    <t>06/18/2016</t>
+  </si>
+  <si>
+    <t>Bad Customer Service</t>
+  </si>
+  <si>
+    <t>Checked in late and had to do all transactions thru a bullet proof glass window while standing outside.  Was not allowed into the lobby area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r375905813-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>375905813</t>
+  </si>
+  <si>
+    <t>05/23/2016</t>
+  </si>
+  <si>
+    <t>Typical old, basic and cheap stay</t>
+  </si>
+  <si>
+    <t>The building, room, furniture, and bedding was all approximately early 1990s style. About what you'd expect for a cheap motel. The only upgrade was the tv. Breakfast was microwave/toaster waffles and cereal with no milk in sight and I kid you not - signs that say you can't take food back to your room. Umm where do you think I ate dinner the night before?</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r363371960-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>363371960</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r331326948-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>331326948</t>
+  </si>
+  <si>
+    <t>12/07/2015</t>
+  </si>
+  <si>
+    <t>DUMP !!!</t>
+  </si>
+  <si>
+    <t>Blood stains on the old, worn almost through sheets...stains on the bedspreads, carpeting, walls...pee on the bathroom floor.  Coffee pot didn't work.  Too much awful to list.  Top 5 worst hotel I have ever stayed at.  I suspect their clientele is more by the hour than legitimate.  I was surprised that Wyndham hotels have gone this far down the toilet.    I would give this place a no star but the roof didn't leak and suppose that gets it a one.  BEWARE!</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r315695537-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>315695537</t>
+  </si>
+  <si>
+    <t>10/02/2015</t>
+  </si>
+  <si>
+    <t>You only payed 50 dollars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel was worth what I paid.  It smelled horrible and after we got their, realized hookers and drugs were the norm for it.  It was to be expected for the amount, I guess.  The staff was extremely friendly and quick on anything we asked for.  Their are plenty of places to eat locally and it is very close to the tram station.  I do know they cleaned carpets right before we stayed and that probably attributed to the smell.  </t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r315172086-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>315172086</t>
+  </si>
+  <si>
+    <t>09/30/2015</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r303719481-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>303719481</t>
+  </si>
+  <si>
+    <t>08/26/2015</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r301973964-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>301973964</t>
+  </si>
+  <si>
+    <t>08/21/2015</t>
+  </si>
+  <si>
+    <t>Could have been better.</t>
+  </si>
+  <si>
+    <t>The location and the room itself was great. I did have some issues with the front desk personal. They seemed to careless if I was a guest or not. My room was not cleaned on the first day. I called to ask if they could send someone to clean it.  The front desk person was rude and blamed me for the room not being cleaned. I told the front person that I was not satisfied and he told me there was nothing he could do. It was 4:30 pm when I informed them of the issue. I was told that I m going to have to wait till the next to have it cleaned. The front desk person could have also made effort to offer to replace needed items in the room. The next day the room was cleaned but customer service needs to upgrade. May I suggest, a smile once in a while or a good morning?  MoreShow less</t>
+  </si>
+  <si>
+    <t>The location and the room itself was great. I did have some issues with the front desk personal. They seemed to careless if I was a guest or not. My room was not cleaned on the first day. I called to ask if they could send someone to clean it.  The front desk person was rude and blamed me for the room not being cleaned. I told the front person that I was not satisfied and he told me there was nothing he could do. It was 4:30 pm when I informed them of the issue. I was told that I m going to have to wait till the next to have it cleaned. The front desk person could have also made effort to offer to replace needed items in the room. The next day the room was cleaned but customer service needs to upgrade. May I suggest, a smile once in a while or a good morning?  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r292999096-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>292999096</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>BED BUGS!!</t>
+  </si>
+  <si>
+    <t>I found bed bugs in the bed and when I went to the front to tell them about it, I was told that the manager will be there in about 30 minutes and would contact me.  I waited over 4 hours and the manager finally showed up and insisted they've never had a problem with bugs.  I asked if he was sure about that because I see 4 mattresses sitting by the garbage dump in the back.  He assured me that was there because they smelled of smoke from the smoking rooms...REALLY!!  So you are replacing the mattress in the smoking rooms with new ones because the old ones smelled of smoke?  Sure!  They moved us to another room and that room also had   bed bugs and when I told him about that, he went into his rant on how this has never happened.  He then began to tell me how booked they were and couldn't move me to another room.  No, thank you!  No more rooms...We requested a refund and we left!!  While we were waiting for this transaction to be completed, he checked in 3 people that walked in...just FYI.What I really didn't appreciate was the insinuation that I brought the bugs to his fine establishment!  He said people come and book through hotels.com or other places and bring the bugs...upon my protest he insisted - no, no, not you! Basically....don't stay here!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>I found bed bugs in the bed and when I went to the front to tell them about it, I was told that the manager will be there in about 30 minutes and would contact me.  I waited over 4 hours and the manager finally showed up and insisted they've never had a problem with bugs.  I asked if he was sure about that because I see 4 mattresses sitting by the garbage dump in the back.  He assured me that was there because they smelled of smoke from the smoking rooms...REALLY!!  So you are replacing the mattress in the smoking rooms with new ones because the old ones smelled of smoke?  Sure!  They moved us to another room and that room also had   bed bugs and when I told him about that, he went into his rant on how this has never happened.  He then began to tell me how booked they were and couldn't move me to another room.  No, thank you!  No more rooms...We requested a refund and we left!!  While we were waiting for this transaction to be completed, he checked in 3 people that walked in...just FYI.What I really didn't appreciate was the insinuation that I brought the bugs to his fine establishment!  He said people come and book through hotels.com or other places and bring the bugs...upon my protest he insisted - no, no, not you! Basically....don't stay here!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r283433651-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>283433651</t>
+  </si>
+  <si>
+    <t>06/27/2015</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r282676515-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>282676515</t>
+  </si>
+  <si>
+    <t>06/24/2015</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>Great value in a great location. One of the best super 8's I've stayed at in years. Comfortable bed, decent bathroom and desk. Breakfast was average and TV channels and TV were above average. Will definitely return.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r282495644-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>282495644</t>
+  </si>
+  <si>
+    <t>06/23/2015</t>
+  </si>
+  <si>
+    <t>Pleasant surprise</t>
+  </si>
+  <si>
+    <t>I wasn't sure what to expect with such a mix of ratings.  The worst thing is that of the many TV channels (not "8") some indeed did come in poorly.  The breakfast isn't anything to write home about either, but for the price you aren't being realistic if you expect much more.  And it can be a little tricky to get to depending on what direction you are coming from, due to the illegality of U-turns.Otherwise the non-smoking room did NOT smell and the A/C ran plenty cold in the 90+ June heat.  And there's a pool which is nice in the summer.  I plan on staying here for two days every week for the duration of my contract.MoreShow less</t>
+  </si>
+  <si>
+    <t>I wasn't sure what to expect with such a mix of ratings.  The worst thing is that of the many TV channels (not "8") some indeed did come in poorly.  The breakfast isn't anything to write home about either, but for the price you aren't being realistic if you expect much more.  And it can be a little tricky to get to depending on what direction you are coming from, due to the illegality of U-turns.Otherwise the non-smoking room did NOT smell and the A/C ran plenty cold in the 90+ June heat.  And there's a pool which is nice in the summer.  I plan on staying here for two days every week for the duration of my contract.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r267607897-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>267607897</t>
+  </si>
+  <si>
+    <t>04/23/2015</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r265549917-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>265549917</t>
+  </si>
+  <si>
+    <t>04/13/2015</t>
+  </si>
+  <si>
+    <t>Nice Stay in Richardson, Texas</t>
+  </si>
+  <si>
+    <t>Our stay was pleasant. The room was  clean, even the corners in the bathroom and the bed was comfortable. Our room was on the front bu we heard no traffic noise from Spring Valley Avenue. If we return to Richardson, we will stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r264948082-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>264948082</t>
+  </si>
+  <si>
+    <t>04/10/2015</t>
+  </si>
+  <si>
+    <t>Tv are small only 8 tv stations hard to get to off freeway...</t>
+  </si>
+  <si>
+    <t>Tv are small only 8 tv stations hard to get to off freeway u turns to get there</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r255492401-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>255492401</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r240081893-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>240081893</t>
+  </si>
+  <si>
+    <t>11/16/2014</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r238387808-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>238387808</t>
+  </si>
+  <si>
+    <t>11/05/2014</t>
+  </si>
+  <si>
+    <t>Not one of Super 8's best</t>
+  </si>
+  <si>
+    <t>We chose this Super8 for its accessibility to the Restland Cemetery. This is the only area that met our expectations.What didn't? The room smelled musty. The bathroom is badly designed. The toilet seat was quite loose. The shower water pressure was low. The so-called breakfast was like something from the quick-stop. The _only_ ice/vending was on the first floor, near the lobby. The posted checkout time was an hour earlier than the time listed on the web site.Need a rating level between poor and average.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r234804410-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>234804410</t>
+  </si>
+  <si>
+    <t>10/16/2014</t>
+  </si>
+  <si>
+    <t>Great location. Clean and comfortable.</t>
+  </si>
+  <si>
+    <t>Stayed one night at this location, just off the US 75, however, I used the DART to get to the hotel. Spring Valley Station. Just 15 minutes to downtown Dallas. I also used the DART bus to get to the NorthPark Mall. Nearby is an excellent Waffle House and an good Chili's. CVS is also nearby.My room was VERY clean and VERY comfortable. I was very pleased at the price.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r234491647-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>234491647</t>
+  </si>
+  <si>
+    <t>10/15/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r234424302-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>234424302</t>
+  </si>
+  <si>
+    <t>10/14/2014</t>
+  </si>
+  <si>
+    <t>Great experience!</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel! It was clean and one of the nicest Super 8s I've stayed in. It's close to the train for easy access to Dallas too.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r220951494-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>220951494</t>
+  </si>
+  <si>
+    <t>08/10/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r217872997-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>217872997</t>
+  </si>
+  <si>
+    <t>07/27/2014</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r216250800-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>216250800</t>
+  </si>
+  <si>
+    <t>07/19/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r209659108-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>209659108</t>
+  </si>
+  <si>
+    <t>06/09/2014</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r208104585-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>208104585</t>
+  </si>
+  <si>
+    <t>05/30/2014</t>
+  </si>
+  <si>
+    <t>Nice, Budget Hotel</t>
+  </si>
+  <si>
+    <t>We stayed at the Super 8 in Richardson on our to Houston and were quite satisfied with the hotel.The front office staff was friendly and the room we stayed in had very new looking furniture and decor. It is conveniently located right off of the highway and there are plenty of stores and restaurants nearby.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r204154286-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>204154286</t>
+  </si>
+  <si>
+    <t>05/05/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r189052609-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>189052609</t>
+  </si>
+  <si>
+    <t>12/30/2013</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r188900926-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>188900926</t>
+  </si>
+  <si>
+    <t>12/29/2013</t>
+  </si>
+  <si>
+    <t>Very Clean and Nice Room but very rude maintenance man</t>
+  </si>
+  <si>
+    <t>I had stayed at another Super 8 that wasn't very clean but was very impressed at the cleanliness of the rooms and the decor of this one.  I would've given it a 4 stars on that alone if my incident didn't happen.  I was taking a nap at 5pm in the evening and all of sudden the maintenance man(according to the front desk) tried to bust in with no knock or announcement of who he was at all.  The room latch slammed so hard that I immediately thought someone was trying to break in.  I had been dead asleep and I jumped up waited and listened for a few seconds then ran and opened the door to see who it was.  I immediately called down to the front desk and they said that it had to have been the maintenance man but would give no explanation and just told me rudely not to worry about it.  That it was very common.  I advised them that maintenance should announce who they are and knock  just like a maid would.   I was told it's no problem " you don't worry"  I could see right away there was no need wasting my words on a person that could care less what I was talking about.  Earlier that day I had been on my laptop with my blinds open and the maintenance man had walked by and looked in at me.  I don't know...I had stayed at another Super 8 that wasn't very clean but was very impressed at the cleanliness of the rooms and the decor of this one.  I would've given it a 4 stars on that alone if my incident didn't happen.  I was taking a nap at 5pm in the evening and all of sudden the maintenance man(according to the front desk) tried to bust in with no knock or announcement of who he was at all.  The room latch slammed so hard that I immediately thought someone was trying to break in.  I had been dead asleep and I jumped up waited and listened for a few seconds then ran and opened the door to see who it was.  I immediately called down to the front desk and they said that it had to have been the maintenance man but would give no explanation and just told me rudely not to worry about it.  That it was very common.  I advised them that maintenance should announce who they are and knock  just like a maid would.   I was told it's no problem " you don't worry"  I could see right away there was no need wasting my words on a person that could care less what I was talking about.  Earlier that day I had been on my laptop with my blinds open and the maintenance man had walked by and looked in at me.  I don't know if it was the maintenance man or someone else trying to bust in and snatch a laptop but whatever the case was it was very scary.  Later on that night right across from my room at about 1 am the noise started up.  Two ladies yelling at each other one throwing the others stuff out of the room.  I kid you not.  This went on for hours and no came to quiet them down.  I strongly advise staying away from this Super 8.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had stayed at another Super 8 that wasn't very clean but was very impressed at the cleanliness of the rooms and the decor of this one.  I would've given it a 4 stars on that alone if my incident didn't happen.  I was taking a nap at 5pm in the evening and all of sudden the maintenance man(according to the front desk) tried to bust in with no knock or announcement of who he was at all.  The room latch slammed so hard that I immediately thought someone was trying to break in.  I had been dead asleep and I jumped up waited and listened for a few seconds then ran and opened the door to see who it was.  I immediately called down to the front desk and they said that it had to have been the maintenance man but would give no explanation and just told me rudely not to worry about it.  That it was very common.  I advised them that maintenance should announce who they are and knock  just like a maid would.   I was told it's no problem " you don't worry"  I could see right away there was no need wasting my words on a person that could care less what I was talking about.  Earlier that day I had been on my laptop with my blinds open and the maintenance man had walked by and looked in at me.  I don't know...I had stayed at another Super 8 that wasn't very clean but was very impressed at the cleanliness of the rooms and the decor of this one.  I would've given it a 4 stars on that alone if my incident didn't happen.  I was taking a nap at 5pm in the evening and all of sudden the maintenance man(according to the front desk) tried to bust in with no knock or announcement of who he was at all.  The room latch slammed so hard that I immediately thought someone was trying to break in.  I had been dead asleep and I jumped up waited and listened for a few seconds then ran and opened the door to see who it was.  I immediately called down to the front desk and they said that it had to have been the maintenance man but would give no explanation and just told me rudely not to worry about it.  That it was very common.  I advised them that maintenance should announce who they are and knock  just like a maid would.   I was told it's no problem " you don't worry"  I could see right away there was no need wasting my words on a person that could care less what I was talking about.  Earlier that day I had been on my laptop with my blinds open and the maintenance man had walked by and looked in at me.  I don't know if it was the maintenance man or someone else trying to bust in and snatch a laptop but whatever the case was it was very scary.  Later on that night right across from my room at about 1 am the noise started up.  Two ladies yelling at each other one throwing the others stuff out of the room.  I kid you not.  This went on for hours and no came to quiet them down.  I strongly advise staying away from this Super 8.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r188451882-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>188451882</t>
+  </si>
+  <si>
+    <t>12/24/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r177445117-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>177445117</t>
+  </si>
+  <si>
+    <t>09/16/2013</t>
+  </si>
+  <si>
+    <t>Days Inn Springfield MO Glenstone exit</t>
+  </si>
+  <si>
+    <t>The room was on the small side, but adequate.  Nice and quiet.  Got a good night's sleeps after long drive.  Breakfast was slighlty above par, as they had an attendant in the area who prepared the waffles for us and helped us to find the items we needed.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r176064796-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>176064796</t>
+  </si>
+  <si>
+    <t>09/06/2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r174701195-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>174701195</t>
+  </si>
+  <si>
+    <t>08/29/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r164399879-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>164399879</t>
+  </si>
+  <si>
+    <t>06/18/2013</t>
+  </si>
+  <si>
+    <t>Meh</t>
+  </si>
+  <si>
+    <t>One of the cleaner motel 8s but they never cleaned the pool! We were there for two nights and never got to use it. We never got our room cleaned, we had to ask for clean towels. The door knob to the restroom wouldn't work. Don't highly recommend unless you get $50 off with an Expedia coupon like I did, lol.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r163637465-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>163637465</t>
+  </si>
+  <si>
+    <t>06/10/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r163029686-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>163029686</t>
+  </si>
+  <si>
+    <t>06/04/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r154404982-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>154404982</t>
+  </si>
+  <si>
+    <t>03/12/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r153386239-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>153386239</t>
+  </si>
+  <si>
+    <t>02/28/2013</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r145838835-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>145838835</t>
+  </si>
+  <si>
+    <t>11/20/2012</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r143438093-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>143438093</t>
+  </si>
+  <si>
+    <t>10/22/2012</t>
+  </si>
+  <si>
+    <t>State Fair Trip</t>
+  </si>
+  <si>
+    <t>I will recommend this hotel as a perfect stay for trips to all my friends from Houston, Txhe price was amazing, I really did not think I would find sucah a great rate, with the State Fair going on and all.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r143209570-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>143209570</t>
+  </si>
+  <si>
+    <t>10/19/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r142680285-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>142680285</t>
+  </si>
+  <si>
+    <t>10/12/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r82065255-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>82065255</t>
+  </si>
+  <si>
+    <t>10/04/2010</t>
+  </si>
+  <si>
+    <t>Red River Rivalry Survival</t>
+  </si>
+  <si>
+    <t>Have you ever stayed in a hotel that when you get in the car to leave after having stayed the night you say "Well, no one broke into our car, so I guess it was a success!" ?? That was what I said after staying at the Super 8 in Richardson, TX.The good:The room overall was clean, the AC worked, the shower was warm, and everything flushed, turned on, etc. DART station was a 4 minute walk in order to go to the OU/Texas game. Wendey's fast food a couple doors down and a CVS across the street. Right off the highway (75). A few miles from everything you could want to do around Dallas/Richardson/Etc.The bad:The deadbolt on the door did NOT work and the metal arm that you can latch at the top of the door was broken off. Bad water pressure. If you're looking for a romantic get away this isn't it. It's ugly, not really private and right off the road/highway.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>Have you ever stayed in a hotel that when you get in the car to leave after having stayed the night you say "Well, no one broke into our car, so I guess it was a success!" ?? That was what I said after staying at the Super 8 in Richardson, TX.The good:The room overall was clean, the AC worked, the shower was warm, and everything flushed, turned on, etc. DART station was a 4 minute walk in order to go to the OU/Texas game. Wendey's fast food a couple doors down and a CVS across the street. Right off the highway (75). A few miles from everything you could want to do around Dallas/Richardson/Etc.The bad:The deadbolt on the door did NOT work and the metal arm that you can latch at the top of the door was broken off. Bad water pressure. If you're looking for a romantic get away this isn't it. It's ugly, not really private and right off the road/highway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r69062722-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>69062722</t>
+  </si>
+  <si>
+    <t>06/29/2010</t>
+  </si>
+  <si>
+    <t>Drug Dealers and Street Walkers Here</t>
+  </si>
+  <si>
+    <t>Within minutes of checking in, there was so much drug traffic in the room next to me I checked out within a few hours.  Also a prostitute walking up and down - in front of my room.  The on-duty manager refused to refund my money.  However, the police now has this "hot spot" on their radar.</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r2884244-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
+  </si>
+  <si>
+    <t>2884244</t>
+  </si>
+  <si>
+    <t>12/14/2004</t>
+  </si>
+  <si>
+    <t>Clean, Good Value</t>
+  </si>
+  <si>
+    <t>Stayed here for three days.  Nice, basic hotel.  Clean and well kept.  Continental Breakfast a little lacking.  Overall a good value.  Would stay here again.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1740,4797 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>90</v>
+      </c>
+      <c r="X8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>90</v>
+      </c>
+      <c r="X9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>90</v>
+      </c>
+      <c r="X10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12" t="s">
+        <v>113</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" t="s">
+        <v>89</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s">
+        <v>102</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>120</v>
+      </c>
+      <c r="O14" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15" t="s">
+        <v>124</v>
+      </c>
+      <c r="L15" t="s">
+        <v>125</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>120</v>
+      </c>
+      <c r="O15" t="s">
+        <v>89</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>126</v>
+      </c>
+      <c r="X15" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16" t="s">
+        <v>133</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>120</v>
+      </c>
+      <c r="O16" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>135</v>
+      </c>
+      <c r="J17" t="s">
+        <v>136</v>
+      </c>
+      <c r="K17" t="s">
+        <v>137</v>
+      </c>
+      <c r="L17" t="s">
+        <v>138</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>139</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" t="s">
+        <v>142</v>
+      </c>
+      <c r="K18" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" t="s">
+        <v>144</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O18" t="s">
+        <v>89</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" t="s">
+        <v>147</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s">
+        <v>102</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O19" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>149</v>
+      </c>
+      <c r="J20" t="s">
+        <v>150</v>
+      </c>
+      <c r="K20" t="s">
+        <v>151</v>
+      </c>
+      <c r="L20" t="s">
+        <v>152</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>153</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>155</v>
+      </c>
+      <c r="J21" t="s">
+        <v>156</v>
+      </c>
+      <c r="K21" t="s">
+        <v>157</v>
+      </c>
+      <c r="L21" t="s">
+        <v>158</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>159</v>
+      </c>
+      <c r="O21" t="s">
+        <v>89</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>161</v>
+      </c>
+      <c r="J22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>164</v>
+      </c>
+      <c r="J23" t="s">
+        <v>165</v>
+      </c>
+      <c r="K23" t="s">
+        <v>166</v>
+      </c>
+      <c r="L23" t="s">
+        <v>167</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>168</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>170</v>
+      </c>
+      <c r="J24" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" t="s">
+        <v>172</v>
+      </c>
+      <c r="L24" t="s">
+        <v>173</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>168</v>
+      </c>
+      <c r="O24" t="s">
+        <v>89</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>176</v>
+      </c>
+      <c r="J25" t="s">
+        <v>177</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s">
+        <v>102</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>178</v>
+      </c>
+      <c r="O25" t="s">
+        <v>70</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>180</v>
+      </c>
+      <c r="J26" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s">
+        <v>102</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>178</v>
+      </c>
+      <c r="O26" t="s">
+        <v>182</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>184</v>
+      </c>
+      <c r="J27" t="s">
+        <v>185</v>
+      </c>
+      <c r="K27" t="s">
+        <v>186</v>
+      </c>
+      <c r="L27" t="s">
+        <v>187</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>178</v>
+      </c>
+      <c r="O27" t="s">
+        <v>89</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>189</v>
+      </c>
+      <c r="J28" t="s">
+        <v>185</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>178</v>
+      </c>
+      <c r="O28" t="s">
+        <v>89</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>190</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>191</v>
+      </c>
+      <c r="J29" t="s">
+        <v>192</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s">
+        <v>102</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>193</v>
+      </c>
+      <c r="O29" t="s">
+        <v>89</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>194</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>195</v>
+      </c>
+      <c r="J30" t="s">
+        <v>196</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s">
+        <v>102</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>197</v>
+      </c>
+      <c r="O30" t="s">
+        <v>89</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>198</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>199</v>
+      </c>
+      <c r="J31" t="s">
+        <v>200</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>197</v>
+      </c>
+      <c r="O31" t="s">
+        <v>70</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>201</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>202</v>
+      </c>
+      <c r="J32" t="s">
+        <v>203</v>
+      </c>
+      <c r="K32" t="s">
+        <v>204</v>
+      </c>
+      <c r="L32" t="s">
+        <v>205</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>197</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>206</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>207</v>
+      </c>
+      <c r="J33" t="s">
+        <v>208</v>
+      </c>
+      <c r="K33" t="s">
+        <v>209</v>
+      </c>
+      <c r="L33" t="s">
+        <v>210</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>211</v>
+      </c>
+      <c r="O33" t="s">
+        <v>70</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>212</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>213</v>
+      </c>
+      <c r="J34" t="s">
+        <v>214</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s">
+        <v>102</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>153</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>215</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>216</v>
+      </c>
+      <c r="J35" t="s">
+        <v>217</v>
+      </c>
+      <c r="K35" t="s">
+        <v>218</v>
+      </c>
+      <c r="L35" t="s">
+        <v>219</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>220</v>
+      </c>
+      <c r="O35" t="s">
+        <v>89</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>222</v>
+      </c>
+      <c r="J36" t="s">
+        <v>223</v>
+      </c>
+      <c r="K36" t="s">
+        <v>224</v>
+      </c>
+      <c r="L36" t="s">
+        <v>225</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>226</v>
+      </c>
+      <c r="O36" t="s">
+        <v>182</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>227</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>228</v>
+      </c>
+      <c r="J37" t="s">
+        <v>229</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>230</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>231</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>232</v>
+      </c>
+      <c r="J38" t="s">
+        <v>233</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s"/>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>234</v>
+      </c>
+      <c r="O38" t="s">
+        <v>89</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>235</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>236</v>
+      </c>
+      <c r="J39" t="s">
+        <v>237</v>
+      </c>
+      <c r="K39" t="s">
+        <v>238</v>
+      </c>
+      <c r="L39" t="s">
+        <v>239</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>234</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>241</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>242</v>
+      </c>
+      <c r="J40" t="s">
+        <v>243</v>
+      </c>
+      <c r="K40" t="s">
+        <v>244</v>
+      </c>
+      <c r="L40" t="s">
+        <v>245</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>246</v>
+      </c>
+      <c r="O40" t="s">
+        <v>89</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>248</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>249</v>
+      </c>
+      <c r="J41" t="s">
+        <v>250</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>251</v>
+      </c>
+      <c r="O41" t="s">
+        <v>70</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>252</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>253</v>
+      </c>
+      <c r="J42" t="s">
+        <v>254</v>
+      </c>
+      <c r="K42" t="s">
+        <v>255</v>
+      </c>
+      <c r="L42" t="s">
+        <v>256</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>251</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>257</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>258</v>
+      </c>
+      <c r="J43" t="s">
+        <v>259</v>
+      </c>
+      <c r="K43" t="s">
+        <v>260</v>
+      </c>
+      <c r="L43" t="s">
+        <v>261</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>251</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>263</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>264</v>
+      </c>
+      <c r="J44" t="s">
+        <v>265</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s">
+        <v>102</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>266</v>
+      </c>
+      <c r="O44" t="s">
+        <v>182</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>267</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>268</v>
+      </c>
+      <c r="J45" t="s">
+        <v>269</v>
+      </c>
+      <c r="K45" t="s">
+        <v>270</v>
+      </c>
+      <c r="L45" t="s">
+        <v>271</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>266</v>
+      </c>
+      <c r="O45" t="s">
+        <v>89</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>272</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>273</v>
+      </c>
+      <c r="J46" t="s">
+        <v>274</v>
+      </c>
+      <c r="K46" t="s">
+        <v>275</v>
+      </c>
+      <c r="L46" t="s">
+        <v>276</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>266</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>277</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>278</v>
+      </c>
+      <c r="J47" t="s">
+        <v>279</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>280</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>281</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>282</v>
+      </c>
+      <c r="J48" t="s">
+        <v>283</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s"/>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>284</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>285</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>286</v>
+      </c>
+      <c r="J49" t="s">
+        <v>287</v>
+      </c>
+      <c r="K49" t="s">
+        <v>288</v>
+      </c>
+      <c r="L49" t="s">
+        <v>289</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>290</v>
+      </c>
+      <c r="O49" t="s">
+        <v>89</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>291</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>292</v>
+      </c>
+      <c r="J50" t="s">
+        <v>293</v>
+      </c>
+      <c r="K50" t="s">
+        <v>294</v>
+      </c>
+      <c r="L50" t="s">
+        <v>295</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>290</v>
+      </c>
+      <c r="O50" t="s">
+        <v>70</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>296</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>297</v>
+      </c>
+      <c r="J51" t="s">
+        <v>298</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>290</v>
+      </c>
+      <c r="O51" t="s">
+        <v>70</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>299</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>300</v>
+      </c>
+      <c r="J52" t="s">
+        <v>301</v>
+      </c>
+      <c r="K52" t="s">
+        <v>302</v>
+      </c>
+      <c r="L52" t="s">
+        <v>303</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>290</v>
+      </c>
+      <c r="O52" t="s">
+        <v>182</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>304</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>305</v>
+      </c>
+      <c r="J53" t="s">
+        <v>306</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>307</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>308</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>309</v>
+      </c>
+      <c r="J54" t="s">
+        <v>310</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>311</v>
+      </c>
+      <c r="O54" t="s">
+        <v>89</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>312</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>313</v>
+      </c>
+      <c r="J55" t="s">
+        <v>314</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s"/>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>311</v>
+      </c>
+      <c r="O55" t="s">
+        <v>89</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>315</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>316</v>
+      </c>
+      <c r="J56" t="s">
+        <v>317</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>318</v>
+      </c>
+      <c r="O56" t="s">
+        <v>182</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>319</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>320</v>
+      </c>
+      <c r="J57" t="s">
+        <v>321</v>
+      </c>
+      <c r="K57" t="s">
+        <v>322</v>
+      </c>
+      <c r="L57" t="s">
+        <v>323</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>324</v>
+      </c>
+      <c r="O57" t="s">
+        <v>89</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>325</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>326</v>
+      </c>
+      <c r="J58" t="s">
+        <v>327</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>324</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>328</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>329</v>
+      </c>
+      <c r="J59" t="s">
+        <v>330</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s"/>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>331</v>
+      </c>
+      <c r="O59" t="s">
+        <v>182</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>332</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>333</v>
+      </c>
+      <c r="J60" t="s">
+        <v>334</v>
+      </c>
+      <c r="K60" t="s">
+        <v>335</v>
+      </c>
+      <c r="L60" t="s">
+        <v>336</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>331</v>
+      </c>
+      <c r="O60" t="s">
+        <v>70</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>338</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>339</v>
+      </c>
+      <c r="J61" t="s">
+        <v>340</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>331</v>
+      </c>
+      <c r="O61" t="s">
+        <v>182</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>341</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>342</v>
+      </c>
+      <c r="J62" t="s">
+        <v>343</v>
+      </c>
+      <c r="K62" t="s">
+        <v>344</v>
+      </c>
+      <c r="L62" t="s">
+        <v>345</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>346</v>
+      </c>
+      <c r="O62" t="s">
+        <v>89</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>347</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>348</v>
+      </c>
+      <c r="J63" t="s">
+        <v>349</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>350</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>351</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>352</v>
+      </c>
+      <c r="J64" t="s">
+        <v>353</v>
+      </c>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s"/>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>350</v>
+      </c>
+      <c r="O64" t="s">
+        <v>89</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>354</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>355</v>
+      </c>
+      <c r="J65" t="s">
+        <v>356</v>
+      </c>
+      <c r="K65" t="s">
+        <v>357</v>
+      </c>
+      <c r="L65" t="s">
+        <v>358</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>359</v>
+      </c>
+      <c r="O65" t="s">
+        <v>89</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>2</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>360</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>361</v>
+      </c>
+      <c r="J66" t="s">
+        <v>362</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s">
+        <v>102</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>359</v>
+      </c>
+      <c r="O66" t="s">
+        <v>76</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>363</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>364</v>
+      </c>
+      <c r="J67" t="s">
+        <v>365</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s"/>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s">
+        <v>359</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>2</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>366</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>367</v>
+      </c>
+      <c r="J68" t="s">
+        <v>368</v>
+      </c>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s"/>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>369</v>
+      </c>
+      <c r="O68" t="s">
+        <v>89</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>370</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>371</v>
+      </c>
+      <c r="J69" t="s">
+        <v>372</v>
+      </c>
+      <c r="K69" t="s"/>
+      <c r="L69" t="s"/>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>373</v>
+      </c>
+      <c r="O69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>374</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>375</v>
+      </c>
+      <c r="J70" t="s">
+        <v>376</v>
+      </c>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s"/>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>377</v>
+      </c>
+      <c r="O70" t="s">
+        <v>89</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>378</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>379</v>
+      </c>
+      <c r="J71" t="s">
+        <v>380</v>
+      </c>
+      <c r="K71" t="s">
+        <v>381</v>
+      </c>
+      <c r="L71" t="s">
+        <v>382</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>383</v>
+      </c>
+      <c r="O71" t="s">
+        <v>89</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>384</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>385</v>
+      </c>
+      <c r="J72" t="s">
+        <v>386</v>
+      </c>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s">
+        <v>102</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>383</v>
+      </c>
+      <c r="O72" t="s">
+        <v>89</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>387</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>388</v>
+      </c>
+      <c r="J73" t="s">
+        <v>389</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s"/>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>383</v>
+      </c>
+      <c r="O73" t="s">
+        <v>70</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>390</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>391</v>
+      </c>
+      <c r="J74" t="s">
+        <v>392</v>
+      </c>
+      <c r="K74" t="s">
+        <v>393</v>
+      </c>
+      <c r="L74" t="s">
+        <v>394</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>395</v>
+      </c>
+      <c r="O74" t="s">
+        <v>182</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>397</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>398</v>
+      </c>
+      <c r="J75" t="s">
+        <v>399</v>
+      </c>
+      <c r="K75" t="s">
+        <v>400</v>
+      </c>
+      <c r="L75" t="s">
+        <v>401</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>402</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>31370</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>403</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>404</v>
+      </c>
+      <c r="J76" t="s">
+        <v>405</v>
+      </c>
+      <c r="K76" t="s">
+        <v>406</v>
+      </c>
+      <c r="L76" t="s">
+        <v>407</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>407</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_747.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_747.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="483">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>perryking2018</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>rodneypstout</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r563179580-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>February 2018</t>
   </si>
   <si>
+    <t>Y6704HLalaaa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r559300633-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>526pennyk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r528046858-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -231,6 +243,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>amybX1578OG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r526136472-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -249,6 +264,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>K8501QXtylers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r517175121-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -267,6 +285,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>730mistys</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r500510631-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -297,6 +318,9 @@
     <t>Reserved and confirmed a double queen. When I got there they had given my room away and stuck is in a single King with a nasty yellow pull out couch that I had to beg for an hour for bedding for. Then I was given a sheet and a towel for my kids to cover up with. The manager was extremely rude and never called me back when he says he would the next day. I had to track him down to get moved for our second night. I was told that because I was a hotel employee from another hotel he could put me anywhere he chose. More</t>
   </si>
   <si>
+    <t>Z9775DS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r491557095-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -315,6 +339,9 @@
     <t>The lady at the front desk was really nice. But the room had a horrible, almost urine smell and the towels were dirty and the tub was so filthy that I couldn't take a shower and the floor was so dirty that I could not go barefoot in the room!! I will NEVER stay here again. The neighborhood seemed questionable on top of the filthy, smelly room. Can't believe I had to pay over $80 for this for one night!NEVER AGAIN!!!! YUCK.More</t>
   </si>
   <si>
+    <t>oyedokunf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r487791713-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -333,6 +360,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>laa487</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r481228853-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -345,6 +375,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>V4978CKstevel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r480385702-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -360,6 +393,9 @@
     <t>My stay at the Super 8 Richardson Tx. was awful. 1. Room we reserved was not available, room we had to stay in had 2 queens , not King Beds, it was smoking instead of non-smoking. Bed linens had cigarette burns in them, sheets were dirty, not enough towels. I bought air freshener so we could barely tolerate the stink, Door was hard to open. Poor quality, awful accomodations.</t>
   </si>
   <si>
+    <t>MoleeJacksonville_Il</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r475871866-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -369,6 +405,9 @@
     <t>04/15/2017</t>
   </si>
   <si>
+    <t>sharonmX6913WS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r471845201-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -381,6 +420,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>SM03090</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r469639855-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -405,6 +447,9 @@
     <t>We came to Texas from Arkansas to tour the culinary  school and picked Richardson Super 8 because of its vecinity to the school.  We didn't have any problem staying comfortable because the AC worked wonderful.   The room was clean.   The breakfast was a little on the light side.   We are used to having eggs and sausage  not just carbs for breakfast.   There was no protein available. Other than that it was a super place to stay. More</t>
   </si>
   <si>
+    <t>212tylere</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r465866347-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -420,6 +465,9 @@
     <t>Room was filty towels were stained bed was disgusting roaches were present toilet backed up WiFi didnt work i could go on</t>
   </si>
   <si>
+    <t>Manchion J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r452899100-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -438,6 +486,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>tashianaw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r452021835-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -453,6 +504,9 @@
     <t>So I really did need a get away from everything and everybody and I finally had the chance to and boy did I enjoy myself.</t>
   </si>
   <si>
+    <t>165hunters</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r451580562-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -462,6 +516,9 @@
     <t>01/12/2017</t>
   </si>
   <si>
+    <t>Danielle L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r439614484-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -480,6 +537,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>jamiea521</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r437165481-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -498,6 +558,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>99830</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r436215056-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -507,6 +570,9 @@
     <t>11/10/2016</t>
   </si>
   <si>
+    <t>Jeffrey L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r431629230-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -525,6 +591,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>Martinez A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r426998044-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -543,6 +612,9 @@
     <t>I chose this place because the price seemed decent and it wasn't too far from the cotton bowl. When we drove up it was disgusting. We specifically reserved a king size bed and they front desk literally looked at me like I was crazy. I purposely wrote down any information from the phone call two weeks prior and she said the name I had was of someone who never worked there. The place smelled horrible. Stains all on the sheets and shower curtain. The remote for the television didn't work and there was a coffee machine but no coffee pot to use it. I should have spent another $40 per night and stayed in another hotel I knew wouldn't let me down. Lesson learned More</t>
   </si>
   <si>
+    <t>O9741CRjanem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r423176919-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -555,6 +627,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>wgou812</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r418489275-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -567,6 +642,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>954reneek</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r415528154-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -582,12 +660,18 @@
     <t xml:space="preserve">I wasn't too thrilled overall.  The room smelled very bad-like it had just been painted.  The commode didn't flush well.  I called the front desk and was told I could come down and get a plunger.  There was something smeared on the bathroom door that looked like feces.  Best note, the was comfortable.  Also, I asked for an extra pillow-again, I was told I could come to the front desk and get one.  We spent $ 239.00 for two nights.   I had a headache and had to play plumber!! </t>
   </si>
   <si>
+    <t>W6261DGjosec</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r415389918-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
     <t>415389918</t>
   </si>
   <si>
+    <t>381berthad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r395251483-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -600,6 +684,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Hope F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r389436176-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -612,6 +699,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>eves985</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r388292695-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -621,6 +711,9 @@
     <t>07/01/2016</t>
   </si>
   <si>
+    <t>33markv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r383807279-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -636,6 +729,9 @@
     <t>Checked in late and had to do all transactions thru a bullet proof glass window while standing outside.  Was not allowed into the lobby area.</t>
   </si>
   <si>
+    <t>Sara W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r375905813-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -654,6 +750,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Kiesha P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r363371960-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -663,6 +762,9 @@
     <t>04/11/2016</t>
   </si>
   <si>
+    <t>RockyRue</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r331326948-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -681,6 +783,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>ashtayki</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r315695537-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -699,6 +804,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>morrissonb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r315172086-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -711,6 +819,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Analiz67</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r303719481-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -723,6 +834,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>jorgevY5839MD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r301973964-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -741,6 +855,9 @@
     <t>The location and the room itself was great. I did have some issues with the front desk personal. They seemed to careless if I was a guest or not. My room was not cleaned on the first day. I called to ask if they could send someone to clean it.  The front desk person was rude and blamed me for the room not being cleaned. I told the front person that I was not satisfied and he told me there was nothing he could do. It was 4:30 pm when I informed them of the issue. I was told that I m going to have to wait till the next to have it cleaned. The front desk person could have also made effort to offer to replace needed items in the room. The next day the room was cleaned but customer service needs to upgrade. May I suggest, a smile once in a while or a good morning?  More</t>
   </si>
   <si>
+    <t>nesysimpson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r292999096-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -762,6 +879,9 @@
     <t>I found bed bugs in the bed and when I went to the front to tell them about it, I was told that the manager will be there in about 30 minutes and would contact me.  I waited over 4 hours and the manager finally showed up and insisted they've never had a problem with bugs.  I asked if he was sure about that because I see 4 mattresses sitting by the garbage dump in the back.  He assured me that was there because they smelled of smoke from the smoking rooms...REALLY!!  So you are replacing the mattress in the smoking rooms with new ones because the old ones smelled of smoke?  Sure!  They moved us to another room and that room also had   bed bugs and when I told him about that, he went into his rant on how this has never happened.  He then began to tell me how booked they were and couldn't move me to another room.  No, thank you!  No more rooms...We requested a refund and we left!!  While we were waiting for this transaction to be completed, he checked in 3 people that walked in...just FYI.What I really didn't appreciate was the insinuation that I brought the bugs to his fine establishment!  He said people come and book through hotels.com or other places and bring the bugs...upon my protest he insisted - no, no, not you! Basically....don't stay here!!More</t>
   </si>
   <si>
+    <t>483ric</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r283433651-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -774,6 +894,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>Deryl K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r282676515-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -789,6 +912,9 @@
     <t>Great value in a great location. One of the best super 8's I've stayed at in years. Comfortable bed, decent bathroom and desk. Breakfast was average and TV channels and TV were above average. Will definitely return.</t>
   </si>
   <si>
+    <t>jemptymethod</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r282495644-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -807,6 +933,9 @@
     <t>I wasn't sure what to expect with such a mix of ratings.  The worst thing is that of the many TV channels (not "8") some indeed did come in poorly.  The breakfast isn't anything to write home about either, but for the price you aren't being realistic if you expect much more.  And it can be a little tricky to get to depending on what direction you are coming from, due to the illegality of U-turns.Otherwise the non-smoking room did NOT smell and the A/C ran plenty cold in the 90+ June heat.  And there's a pool which is nice in the summer.  I plan on staying here for two days every week for the duration of my contract.More</t>
   </si>
   <si>
+    <t>Kevin K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r267607897-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -819,6 +948,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Curmudgeon439</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r265549917-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -834,6 +966,9 @@
     <t>Our stay was pleasant. The room was  clean, even the corners in the bathroom and the bed was comfortable. Our room was on the front bu we heard no traffic noise from Spring Valley Avenue. If we return to Richardson, we will stay there again.</t>
   </si>
   <si>
+    <t>Mary L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r264948082-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -849,6 +984,9 @@
     <t>Tv are small only 8 tv stations hard to get to off freeway u turns to get there</t>
   </si>
   <si>
+    <t>Accharawan K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r255492401-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -861,6 +999,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>angelm565</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r240081893-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -873,6 +1014,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>jkent46</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r238387808-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -891,6 +1035,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Paul G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r234804410-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -906,6 +1053,9 @@
     <t>Stayed one night at this location, just off the US 75, however, I used the DART to get to the hotel. Spring Valley Station. Just 15 minutes to downtown Dallas. I also used the DART bus to get to the NorthPark Mall. Nearby is an excellent Waffle House and an good Chili's. CVS is also nearby.My room was VERY clean and VERY comfortable. I was very pleased at the price.</t>
   </si>
   <si>
+    <t>A Wyndham traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r234491647-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -915,6 +1065,9 @@
     <t>10/15/2014</t>
   </si>
   <si>
+    <t>Soonerfan76</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r234424302-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -930,6 +1083,9 @@
     <t>This is a very nice hotel! It was clean and one of the nicest Super 8s I've stayed in. It's close to the train for easy access to Dallas too.</t>
   </si>
   <si>
+    <t>William M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r220951494-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -942,6 +1098,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>NancyLV12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r217872997-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -954,6 +1113,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>Brenda B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r216250800-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -963,6 +1125,9 @@
     <t>07/19/2014</t>
   </si>
   <si>
+    <t>Sarah B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r209659108-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -975,6 +1140,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>James W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r208104585-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -993,6 +1161,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Jeff T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r204154286-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1002,6 +1173,9 @@
     <t>05/05/2014</t>
   </si>
   <si>
+    <t>Melody K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r189052609-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1014,6 +1188,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>InkedConservative</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r188900926-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1032,6 +1209,9 @@
     <t>I had stayed at another Super 8 that wasn't very clean but was very impressed at the cleanliness of the rooms and the decor of this one.  I would've given it a 4 stars on that alone if my incident didn't happen.  I was taking a nap at 5pm in the evening and all of sudden the maintenance man(according to the front desk) tried to bust in with no knock or announcement of who he was at all.  The room latch slammed so hard that I immediately thought someone was trying to break in.  I had been dead asleep and I jumped up waited and listened for a few seconds then ran and opened the door to see who it was.  I immediately called down to the front desk and they said that it had to have been the maintenance man but would give no explanation and just told me rudely not to worry about it.  That it was very common.  I advised them that maintenance should announce who they are and knock  just like a maid would.   I was told it's no problem " you don't worry"  I could see right away there was no need wasting my words on a person that could care less what I was talking about.  Earlier that day I had been on my laptop with my blinds open and the maintenance man had walked by and looked in at me.  I don't know...I had stayed at another Super 8 that wasn't very clean but was very impressed at the cleanliness of the rooms and the decor of this one.  I would've given it a 4 stars on that alone if my incident didn't happen.  I was taking a nap at 5pm in the evening and all of sudden the maintenance man(according to the front desk) tried to bust in with no knock or announcement of who he was at all.  The room latch slammed so hard that I immediately thought someone was trying to break in.  I had been dead asleep and I jumped up waited and listened for a few seconds then ran and opened the door to see who it was.  I immediately called down to the front desk and they said that it had to have been the maintenance man but would give no explanation and just told me rudely not to worry about it.  That it was very common.  I advised them that maintenance should announce who they are and knock  just like a maid would.   I was told it's no problem " you don't worry"  I could see right away there was no need wasting my words on a person that could care less what I was talking about.  Earlier that day I had been on my laptop with my blinds open and the maintenance man had walked by and looked in at me.  I don't know if it was the maintenance man or someone else trying to bust in and snatch a laptop but whatever the case was it was very scary.  Later on that night right across from my room at about 1 am the noise started up.  Two ladies yelling at each other one throwing the others stuff out of the room.  I kid you not.  This went on for hours and no came to quiet them down.  I strongly advise staying away from this Super 8.More</t>
   </si>
   <si>
+    <t>powder49</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r188451882-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1041,6 +1221,9 @@
     <t>12/24/2013</t>
   </si>
   <si>
+    <t>Rick K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r177445117-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1059,6 +1242,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Wayne W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r176064796-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1071,6 +1257,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>D B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r174701195-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1080,6 +1269,9 @@
     <t>08/29/2013</t>
   </si>
   <si>
+    <t>Cynthia G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r164399879-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1098,6 +1290,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Jeremy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r163637465-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1107,6 +1302,9 @@
     <t>06/10/2013</t>
   </si>
   <si>
+    <t>Antonia V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r163029686-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1116,6 +1314,9 @@
     <t>06/04/2013</t>
   </si>
   <si>
+    <t>Julia B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r154404982-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1128,6 +1329,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Osborn D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r153386239-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1140,6 +1344,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>TRUDY R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r145838835-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1152,6 +1359,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>RUBEN R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r143438093-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1170,6 +1380,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>AMANDA_BNewalla</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r143209570-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1179,6 +1392,9 @@
     <t>10/19/2012</t>
   </si>
   <si>
+    <t>WILLIAM J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r142680285-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1188,6 +1404,9 @@
     <t>10/12/2012</t>
   </si>
   <si>
+    <t>tripaj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r82065255-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1209,6 +1428,9 @@
     <t>Have you ever stayed in a hotel that when you get in the car to leave after having stayed the night you say "Well, no one broke into our car, so I guess it was a success!" ?? That was what I said after staying at the Super 8 in Richardson, TX.The good:The room overall was clean, the AC worked, the shower was warm, and everything flushed, turned on, etc. DART station was a 4 minute walk in order to go to the OU/Texas game. Wendey's fast food a couple doors down and a CVS across the street. Right off the highway (75). A few miles from everything you could want to do around Dallas/Richardson/Etc.The bad:The deadbolt on the door did NOT work and the metal arm that you can latch at the top of the door was broken off. Bad water pressure. If you're looking for a romantic get away this isn't it. It's ugly, not really private and right off the road/highway.More</t>
   </si>
   <si>
+    <t>NASAInstructor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r69062722-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1225,6 +1447,9 @@
   </si>
   <si>
     <t>June 2010</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d109038-r2884244-Super_8_Richardson_Dallas-Richardson_Texas.html</t>
@@ -1744,43 +1969,47 @@
       <c r="A2" t="n">
         <v>31370</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>179488</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -1804,50 +2033,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>31370</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>179489</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
         <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -1871,50 +2104,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>31370</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>179490</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>2</v>
@@ -1938,35 +2175,39 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>31370</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>179491</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -1974,10 +2215,10 @@
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -1998,51 +2239,52 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
-      <c r="Y5" t="s"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>31370</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>179492</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>73</v>
       </c>
-      <c r="K6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L6" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>69</v>
-      </c>
       <c r="O6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -2066,50 +2308,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>31370</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>179493</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -2133,50 +2379,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>31370</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>179494</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
@@ -2198,56 +2448,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="X8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>31370</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>179495</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
         <v>95</v>
       </c>
-      <c r="K9" t="s">
-        <v>96</v>
-      </c>
-      <c r="L9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>88</v>
-      </c>
       <c r="O9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -2269,54 +2523,58 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="X9" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>31370</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>179496</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -2338,41 +2596,45 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="X10" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>31370</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>179497</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -2380,10 +2642,10 @@
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O11" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P11" t="n">
         <v>2</v>
@@ -2404,51 +2666,52 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
-      <c r="Y11" t="s"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>31370</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>179498</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="K12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O12" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -2472,35 +2735,39 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>31370</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>179499</v>
+      </c>
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -2508,10 +2775,10 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O13" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -2532,49 +2799,50 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
-      <c r="Y13" t="s"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>31370</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>179500</v>
+      </c>
+      <c r="C14" t="s">
+        <v>129</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="O14" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2598,50 +2866,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>31370</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>179501</v>
+      </c>
+      <c r="C15" t="s">
+        <v>134</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="J15" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="K15" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="O15" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2653,56 +2925,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="X15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="Y15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>31370</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>179502</v>
+      </c>
+      <c r="C16" t="s">
+        <v>143</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="J16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="K16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="L16" t="s">
+        <v>148</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
         <v>133</v>
       </c>
-      <c r="M16" t="n">
-        <v>2</v>
-      </c>
-      <c r="N16" t="s">
-        <v>120</v>
-      </c>
       <c r="O16" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -2726,50 +3002,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>31370</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>179503</v>
+      </c>
+      <c r="C17" t="s">
+        <v>149</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="J17" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="K17" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -2793,50 +3073,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>31370</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>179504</v>
+      </c>
+      <c r="C18" t="s">
+        <v>156</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="J18" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="O18" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -2860,48 +3144,52 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>31370</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>179505</v>
+      </c>
+      <c r="C19" t="s">
+        <v>162</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="J19" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="O19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -2925,50 +3213,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>31370</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>23840</v>
+      </c>
+      <c r="C20" t="s">
+        <v>166</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="J20" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="K20" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="L20" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2982,50 +3274,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>31370</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>179506</v>
+      </c>
+      <c r="C21" t="s">
+        <v>173</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="J21" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="K21" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="L21" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="O21" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -3049,35 +3345,39 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>31370</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>179507</v>
+      </c>
+      <c r="C22" t="s">
+        <v>180</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="J22" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s"/>
@@ -3085,10 +3385,10 @@
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -3109,51 +3409,52 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
-      <c r="Y22" t="s"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>31370</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>35937</v>
+      </c>
+      <c r="C23" t="s">
+        <v>184</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="J23" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="K23" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="L23" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -3177,50 +3478,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>31370</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>179508</v>
+      </c>
+      <c r="C24" t="s">
+        <v>191</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="J24" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="K24" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="O24" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P24" t="n">
         <v>2</v>
@@ -3244,48 +3549,52 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>31370</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>179509</v>
+      </c>
+      <c r="C25" t="s">
+        <v>198</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="J25" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="O25" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -3309,48 +3618,52 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>31370</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>179510</v>
+      </c>
+      <c r="C26" t="s">
+        <v>203</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="J26" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="K26" t="s"/>
       <c r="L26" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="O26" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -3374,50 +3687,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>31370</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>179511</v>
+      </c>
+      <c r="C27" t="s">
+        <v>208</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="J27" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="K27" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="L27" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="O27" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -3441,35 +3758,39 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>31370</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>179512</v>
+      </c>
+      <c r="C28" t="s">
+        <v>214</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="J28" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s"/>
@@ -3477,10 +3798,10 @@
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="O28" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
@@ -3501,49 +3822,50 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
-      <c r="Y28" t="s"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>31370</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>179513</v>
+      </c>
+      <c r="C29" t="s">
+        <v>217</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="J29" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="K29" t="s"/>
       <c r="L29" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="O29" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
@@ -3567,48 +3889,52 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>31370</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>179514</v>
+      </c>
+      <c r="C30" t="s">
+        <v>222</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="J30" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="K30" t="s"/>
       <c r="L30" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="O30" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -3632,35 +3958,39 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>31370</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>179515</v>
+      </c>
+      <c r="C31" t="s">
+        <v>227</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="J31" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s"/>
@@ -3668,10 +3998,10 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="O31" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -3692,51 +4022,52 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
-      <c r="Y31" t="s"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>31370</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>179516</v>
+      </c>
+      <c r="C32" t="s">
+        <v>231</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="J32" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="K32" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="L32" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>2</v>
@@ -3760,50 +4091,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>31370</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>20614</v>
+      </c>
+      <c r="C33" t="s">
+        <v>237</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="J33" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="K33" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="L33" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="O33" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -3827,48 +4162,52 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>31370</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>179517</v>
+      </c>
+      <c r="C34" t="s">
+        <v>244</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="J34" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="K34" t="s"/>
       <c r="L34" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -3892,50 +4231,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>31370</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>89772</v>
+      </c>
+      <c r="C35" t="s">
+        <v>248</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="J35" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="K35" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="L35" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="O35" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -3953,50 +4296,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>31370</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>179518</v>
+      </c>
+      <c r="C36" t="s">
+        <v>255</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="J36" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="K36" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="L36" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="O36" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4010,35 +4357,39 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>31370</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>179519</v>
+      </c>
+      <c r="C37" t="s">
+        <v>262</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="J37" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="K37" t="s"/>
       <c r="L37" t="s"/>
@@ -4046,10 +4397,10 @@
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -4070,36 +4421,37 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
-      <c r="Y37" t="s"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>31370</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>179520</v>
+      </c>
+      <c r="C38" t="s">
+        <v>267</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="J38" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="K38" t="s"/>
       <c r="L38" t="s"/>
@@ -4107,10 +4459,10 @@
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="O38" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4131,51 +4483,52 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
-      <c r="Y38" t="s"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>31370</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>179521</v>
+      </c>
+      <c r="C39" t="s">
+        <v>272</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="J39" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="K39" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="L39" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4199,50 +4552,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>31370</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>179522</v>
+      </c>
+      <c r="C40" t="s">
+        <v>279</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="J40" t="s">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="K40" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="L40" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="O40" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
@@ -4262,35 +4619,39 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>31370</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>179523</v>
+      </c>
+      <c r="C41" t="s">
+        <v>287</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="J41" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="K41" t="s"/>
       <c r="L41" t="s"/>
@@ -4298,10 +4659,10 @@
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="O41" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P41" t="n">
         <v>2</v>
@@ -4322,51 +4683,52 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
-      <c r="Y41" t="s"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>31370</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>179524</v>
+      </c>
+      <c r="C42" t="s">
+        <v>292</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>252</v>
+        <v>293</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="J42" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="K42" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="L42" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4380,50 +4742,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>31370</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>179525</v>
+      </c>
+      <c r="C43" t="s">
+        <v>298</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="J43" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="K43" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="L43" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -4443,48 +4809,52 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>31370</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>14940</v>
+      </c>
+      <c r="C44" t="s">
+        <v>305</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="J44" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="K44" t="s"/>
       <c r="L44" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="O44" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -4508,50 +4878,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>31370</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>179526</v>
+      </c>
+      <c r="C45" t="s">
+        <v>310</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="J45" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="K45" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="L45" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="O45" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4573,50 +4947,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>31370</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>11132</v>
+      </c>
+      <c r="C46" t="s">
+        <v>316</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>272</v>
+        <v>317</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>273</v>
+        <v>318</v>
       </c>
       <c r="J46" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="K46" t="s">
-        <v>275</v>
+        <v>320</v>
       </c>
       <c r="L46" t="s">
-        <v>276</v>
+        <v>321</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -4638,35 +5016,39 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>276</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>31370</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>179527</v>
+      </c>
+      <c r="C47" t="s">
+        <v>322</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>278</v>
+        <v>324</v>
       </c>
       <c r="J47" t="s">
-        <v>279</v>
+        <v>325</v>
       </c>
       <c r="K47" t="s"/>
       <c r="L47" t="s"/>
@@ -4674,10 +5056,10 @@
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>280</v>
+        <v>326</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>2</v>
@@ -4698,36 +5080,37 @@
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
-      <c r="Y47" t="s"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>31370</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>179528</v>
+      </c>
+      <c r="C48" t="s">
+        <v>327</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>281</v>
+        <v>328</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>282</v>
+        <v>329</v>
       </c>
       <c r="J48" t="s">
-        <v>283</v>
+        <v>330</v>
       </c>
       <c r="K48" t="s"/>
       <c r="L48" t="s"/>
@@ -4735,10 +5118,10 @@
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>284</v>
+        <v>331</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -4759,51 +5142,52 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
-      <c r="Y48" t="s"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>31370</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>179529</v>
+      </c>
+      <c r="C49" t="s">
+        <v>332</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>286</v>
+        <v>334</v>
       </c>
       <c r="J49" t="s">
-        <v>287</v>
+        <v>335</v>
       </c>
       <c r="K49" t="s">
-        <v>288</v>
+        <v>336</v>
       </c>
       <c r="L49" t="s">
-        <v>289</v>
+        <v>337</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="O49" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P49" t="n">
         <v>2</v>
@@ -4827,50 +5211,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>289</v>
+        <v>337</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>31370</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>3553</v>
+      </c>
+      <c r="C50" t="s">
+        <v>339</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="J50" t="s">
-        <v>293</v>
+        <v>342</v>
       </c>
       <c r="K50" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="L50" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="O50" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -4894,35 +5282,39 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>31370</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>6509</v>
+      </c>
+      <c r="C51" t="s">
+        <v>345</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="J51" t="s">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="K51" t="s"/>
       <c r="L51" t="s"/>
@@ -4930,10 +5322,10 @@
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="O51" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P51" t="n">
         <v>2</v>
@@ -4954,51 +5346,52 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
-      <c r="Y51" t="s"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>31370</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>179530</v>
+      </c>
+      <c r="C52" t="s">
+        <v>349</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>299</v>
+        <v>350</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>300</v>
+        <v>351</v>
       </c>
       <c r="J52" t="s">
-        <v>301</v>
+        <v>352</v>
       </c>
       <c r="K52" t="s">
-        <v>302</v>
+        <v>353</v>
       </c>
       <c r="L52" t="s">
-        <v>303</v>
+        <v>354</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="O52" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5022,35 +5415,39 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>303</v>
+        <v>354</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>31370</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>13586</v>
+      </c>
+      <c r="C53" t="s">
+        <v>355</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>304</v>
+        <v>356</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>305</v>
+        <v>357</v>
       </c>
       <c r="J53" t="s">
-        <v>306</v>
+        <v>358</v>
       </c>
       <c r="K53" t="s"/>
       <c r="L53" t="s"/>
@@ -5058,10 +5455,10 @@
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>307</v>
+        <v>359</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -5082,36 +5479,37 @@
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
-      <c r="Y53" t="s"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>31370</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>179531</v>
+      </c>
+      <c r="C54" t="s">
+        <v>360</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>308</v>
+        <v>361</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>309</v>
+        <v>362</v>
       </c>
       <c r="J54" t="s">
-        <v>310</v>
+        <v>363</v>
       </c>
       <c r="K54" t="s"/>
       <c r="L54" t="s"/>
@@ -5119,10 +5517,10 @@
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>311</v>
+        <v>364</v>
       </c>
       <c r="O54" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5143,36 +5541,37 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
-      <c r="Y54" t="s"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>31370</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>48928</v>
+      </c>
+      <c r="C55" t="s">
+        <v>365</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>312</v>
+        <v>366</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>313</v>
+        <v>367</v>
       </c>
       <c r="J55" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
       <c r="K55" t="s"/>
       <c r="L55" t="s"/>
@@ -5180,10 +5579,10 @@
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>311</v>
+        <v>364</v>
       </c>
       <c r="O55" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -5204,36 +5603,37 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
-      <c r="Y55" t="s"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>31370</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>2620</v>
+      </c>
+      <c r="C56" t="s">
+        <v>369</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>315</v>
+        <v>370</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>316</v>
+        <v>371</v>
       </c>
       <c r="J56" t="s">
-        <v>317</v>
+        <v>372</v>
       </c>
       <c r="K56" t="s"/>
       <c r="L56" t="s"/>
@@ -5241,10 +5641,10 @@
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>318</v>
+        <v>373</v>
       </c>
       <c r="O56" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -5265,51 +5665,52 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
-      <c r="Y56" t="s"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>31370</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>2409</v>
+      </c>
+      <c r="C57" t="s">
+        <v>374</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="J57" t="s">
-        <v>321</v>
+        <v>377</v>
       </c>
       <c r="K57" t="s">
-        <v>322</v>
+        <v>378</v>
       </c>
       <c r="L57" t="s">
-        <v>323</v>
+        <v>379</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="O57" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5333,35 +5734,39 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>323</v>
+        <v>379</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>31370</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>50028</v>
+      </c>
+      <c r="C58" t="s">
+        <v>381</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>325</v>
+        <v>382</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
       <c r="J58" t="s">
-        <v>327</v>
+        <v>384</v>
       </c>
       <c r="K58" t="s"/>
       <c r="L58" t="s"/>
@@ -5369,10 +5774,10 @@
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -5393,36 +5798,37 @@
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
-      <c r="Y58" t="s"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>31370</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>138294</v>
+      </c>
+      <c r="C59" t="s">
+        <v>385</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>328</v>
+        <v>386</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>329</v>
+        <v>387</v>
       </c>
       <c r="J59" t="s">
-        <v>330</v>
+        <v>388</v>
       </c>
       <c r="K59" t="s"/>
       <c r="L59" t="s"/>
@@ -5430,10 +5836,10 @@
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>331</v>
+        <v>389</v>
       </c>
       <c r="O59" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -5454,51 +5860,52 @@
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
-      <c r="Y59" t="s"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>31370</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>179532</v>
+      </c>
+      <c r="C60" t="s">
+        <v>390</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>332</v>
+        <v>391</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>333</v>
+        <v>392</v>
       </c>
       <c r="J60" t="s">
-        <v>334</v>
+        <v>393</v>
       </c>
       <c r="K60" t="s">
-        <v>335</v>
+        <v>394</v>
       </c>
       <c r="L60" t="s">
-        <v>336</v>
+        <v>395</v>
       </c>
       <c r="M60" t="n">
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>331</v>
+        <v>389</v>
       </c>
       <c r="O60" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -5522,35 +5929,39 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>337</v>
+        <v>396</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>31370</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>179533</v>
+      </c>
+      <c r="C61" t="s">
+        <v>397</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>338</v>
+        <v>398</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>339</v>
+        <v>399</v>
       </c>
       <c r="J61" t="s">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K61" t="s"/>
       <c r="L61" t="s"/>
@@ -5558,10 +5969,10 @@
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>331</v>
+        <v>389</v>
       </c>
       <c r="O61" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -5582,51 +5993,52 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
-      <c r="Y61" t="s"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>31370</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>1096</v>
+      </c>
+      <c r="C62" t="s">
+        <v>401</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>341</v>
+        <v>402</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>342</v>
+        <v>403</v>
       </c>
       <c r="J62" t="s">
-        <v>343</v>
+        <v>404</v>
       </c>
       <c r="K62" t="s">
-        <v>344</v>
+        <v>405</v>
       </c>
       <c r="L62" t="s">
-        <v>345</v>
+        <v>406</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>346</v>
+        <v>407</v>
       </c>
       <c r="O62" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -5650,35 +6062,39 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>345</v>
+        <v>406</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>31370</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>11560</v>
+      </c>
+      <c r="C63" t="s">
+        <v>408</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>347</v>
+        <v>409</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>348</v>
+        <v>410</v>
       </c>
       <c r="J63" t="s">
-        <v>349</v>
+        <v>411</v>
       </c>
       <c r="K63" t="s"/>
       <c r="L63" t="s"/>
@@ -5686,10 +6102,10 @@
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>350</v>
+        <v>412</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -5710,36 +6126,37 @@
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
-      <c r="Y63" t="s"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>31370</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>61701</v>
+      </c>
+      <c r="C64" t="s">
+        <v>413</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>351</v>
+        <v>414</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>352</v>
+        <v>415</v>
       </c>
       <c r="J64" t="s">
-        <v>353</v>
+        <v>416</v>
       </c>
       <c r="K64" t="s"/>
       <c r="L64" t="s"/>
@@ -5747,10 +6164,10 @@
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>350</v>
+        <v>412</v>
       </c>
       <c r="O64" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -5771,51 +6188,52 @@
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
-      <c r="Y64" t="s"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>31370</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>3561</v>
+      </c>
+      <c r="C65" t="s">
+        <v>417</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>354</v>
+        <v>418</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>355</v>
+        <v>419</v>
       </c>
       <c r="J65" t="s">
-        <v>356</v>
+        <v>420</v>
       </c>
       <c r="K65" t="s">
-        <v>357</v>
+        <v>421</v>
       </c>
       <c r="L65" t="s">
-        <v>358</v>
+        <v>422</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>359</v>
+        <v>423</v>
       </c>
       <c r="O65" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -5839,48 +6257,52 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>358</v>
+        <v>422</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>31370</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>3133</v>
+      </c>
+      <c r="C66" t="s">
+        <v>424</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>360</v>
+        <v>425</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>361</v>
+        <v>426</v>
       </c>
       <c r="J66" t="s">
-        <v>362</v>
+        <v>427</v>
       </c>
       <c r="K66" t="s"/>
       <c r="L66" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>359</v>
+        <v>423</v>
       </c>
       <c r="O66" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -5904,35 +6326,39 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>31370</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>179534</v>
+      </c>
+      <c r="C67" t="s">
+        <v>428</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>363</v>
+        <v>429</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>364</v>
+        <v>430</v>
       </c>
       <c r="J67" t="s">
-        <v>365</v>
+        <v>431</v>
       </c>
       <c r="K67" t="s"/>
       <c r="L67" t="s"/>
@@ -5940,10 +6366,10 @@
         <v>2</v>
       </c>
       <c r="N67" t="s">
-        <v>359</v>
+        <v>423</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -5964,36 +6390,37 @@
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
-      <c r="Y67" t="s"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>31370</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>15565</v>
+      </c>
+      <c r="C68" t="s">
+        <v>432</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>366</v>
+        <v>433</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>367</v>
+        <v>434</v>
       </c>
       <c r="J68" t="s">
-        <v>368</v>
+        <v>435</v>
       </c>
       <c r="K68" t="s"/>
       <c r="L68" t="s"/>
@@ -6001,10 +6428,10 @@
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>369</v>
+        <v>436</v>
       </c>
       <c r="O68" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -6025,36 +6452,37 @@
       <c r="V68" t="n">
         <v>0</v>
       </c>
-      <c r="W68" t="s"/>
-      <c r="X68" t="s"/>
-      <c r="Y68" t="s"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>31370</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>179535</v>
+      </c>
+      <c r="C69" t="s">
+        <v>437</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>370</v>
+        <v>438</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>371</v>
+        <v>439</v>
       </c>
       <c r="J69" t="s">
-        <v>372</v>
+        <v>440</v>
       </c>
       <c r="K69" t="s"/>
       <c r="L69" t="s"/>
@@ -6062,10 +6490,10 @@
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>373</v>
+        <v>441</v>
       </c>
       <c r="O69" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -6086,36 +6514,37 @@
       <c r="V69" t="n">
         <v>0</v>
       </c>
-      <c r="W69" t="s"/>
-      <c r="X69" t="s"/>
-      <c r="Y69" t="s"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>31370</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>179536</v>
+      </c>
+      <c r="C70" t="s">
+        <v>442</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>374</v>
+        <v>443</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>375</v>
+        <v>444</v>
       </c>
       <c r="J70" t="s">
-        <v>376</v>
+        <v>445</v>
       </c>
       <c r="K70" t="s"/>
       <c r="L70" t="s"/>
@@ -6123,10 +6552,10 @@
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>377</v>
+        <v>446</v>
       </c>
       <c r="O70" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -6147,51 +6576,52 @@
       <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="W70" t="s"/>
-      <c r="X70" t="s"/>
-      <c r="Y70" t="s"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>31370</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>179537</v>
+      </c>
+      <c r="C71" t="s">
+        <v>447</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>378</v>
+        <v>448</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>379</v>
+        <v>449</v>
       </c>
       <c r="J71" t="s">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="K71" t="s">
-        <v>381</v>
+        <v>451</v>
       </c>
       <c r="L71" t="s">
-        <v>382</v>
+        <v>452</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>383</v>
+        <v>453</v>
       </c>
       <c r="O71" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -6215,48 +6645,52 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>382</v>
+        <v>452</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>31370</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>179538</v>
+      </c>
+      <c r="C72" t="s">
+        <v>454</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>384</v>
+        <v>455</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>385</v>
+        <v>456</v>
       </c>
       <c r="J72" t="s">
-        <v>386</v>
+        <v>457</v>
       </c>
       <c r="K72" t="s"/>
       <c r="L72" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
       <c r="N72" t="s">
-        <v>383</v>
+        <v>453</v>
       </c>
       <c r="O72" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -6280,35 +6714,39 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>31370</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>72962</v>
+      </c>
+      <c r="C73" t="s">
+        <v>458</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>387</v>
+        <v>459</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>388</v>
+        <v>460</v>
       </c>
       <c r="J73" t="s">
-        <v>389</v>
+        <v>461</v>
       </c>
       <c r="K73" t="s"/>
       <c r="L73" t="s"/>
@@ -6316,10 +6754,10 @@
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>383</v>
+        <v>453</v>
       </c>
       <c r="O73" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -6340,51 +6778,52 @@
       <c r="V73" t="n">
         <v>0</v>
       </c>
-      <c r="W73" t="s"/>
-      <c r="X73" t="s"/>
-      <c r="Y73" t="s"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>31370</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>179539</v>
+      </c>
+      <c r="C74" t="s">
+        <v>462</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>390</v>
+        <v>463</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>391</v>
+        <v>464</v>
       </c>
       <c r="J74" t="s">
-        <v>392</v>
+        <v>465</v>
       </c>
       <c r="K74" t="s">
-        <v>393</v>
+        <v>466</v>
       </c>
       <c r="L74" t="s">
-        <v>394</v>
+        <v>467</v>
       </c>
       <c r="M74" t="n">
         <v>2</v>
       </c>
       <c r="N74" t="s">
-        <v>395</v>
+        <v>468</v>
       </c>
       <c r="O74" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -6408,50 +6847,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>396</v>
+        <v>469</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>31370</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>179540</v>
+      </c>
+      <c r="C75" t="s">
+        <v>470</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>397</v>
+        <v>471</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>398</v>
+        <v>472</v>
       </c>
       <c r="J75" t="s">
-        <v>399</v>
+        <v>473</v>
       </c>
       <c r="K75" t="s">
-        <v>400</v>
+        <v>474</v>
       </c>
       <c r="L75" t="s">
-        <v>401</v>
+        <v>475</v>
       </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
       <c r="N75" t="s">
-        <v>402</v>
+        <v>476</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>1</v>
@@ -6475,41 +6918,45 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>401</v>
+        <v>475</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>31370</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>477</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>403</v>
+        <v>478</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>404</v>
+        <v>479</v>
       </c>
       <c r="J76" t="s">
-        <v>405</v>
+        <v>480</v>
       </c>
       <c r="K76" t="s">
-        <v>406</v>
+        <v>481</v>
       </c>
       <c r="L76" t="s">
-        <v>407</v>
+        <v>482</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
@@ -6528,7 +6975,7 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>407</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
